--- a/Hospitais/extraidos/hospitais_julho.xlsx
+++ b/Hospitais/extraidos/hospitais_julho.xlsx
@@ -28,6 +28,15 @@
     <t>porcentagem</t>
   </si>
   <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -40,9 +49,6 @@
     <t>1.4</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
@@ -73,9 +79,6 @@
     <t>4.2</t>
   </si>
   <si>
-    <t>4.3</t>
-  </si>
-  <si>
     <t>5.1</t>
   </si>
   <si>
@@ -124,9 +127,6 @@
     <t>Indisponibilidade de leito para internação hospitalar (ilh)</t>
   </si>
   <si>
-    <t>Subistituição de paciente</t>
-  </si>
-  <si>
     <t>Pré-operatório incompleto (poi)</t>
   </si>
   <si>
@@ -157,9 +157,6 @@
     <t>Não internação hospitalar (nih)</t>
   </si>
   <si>
-    <t>Inesperada condição do paciente (icp):gravidez, tornozeleira...</t>
-  </si>
-  <si>
     <t>Falta de material cirúrgico (fmc)</t>
   </si>
   <si>
@@ -196,6 +193,15 @@
     <t>MISCELÂNIA</t>
   </si>
   <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>1.71%</t>
+  </si>
+  <si>
+    <t>1.28%</t>
+  </si>
+  <si>
     <t>3.42%</t>
   </si>
   <si>
@@ -205,9 +211,6 @@
     <t>2.14%</t>
   </si>
   <si>
-    <t>1.71%</t>
-  </si>
-  <si>
     <t>3.85%</t>
   </si>
   <si>
@@ -215,9 +218,6 @@
   </si>
   <si>
     <t>0.43%</t>
-  </si>
-  <si>
-    <t>1.28%</t>
   </si>
   <si>
     <t>14.96%</t>
@@ -587,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,13 +615,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -632,13 +629,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -649,13 +643,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -669,10 +660,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -683,10 +674,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
         <v>63</v>
@@ -700,10 +691,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
         <v>64</v>
@@ -717,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -734,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -751,13 +742,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -768,10 +759,10 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
         <v>63</v>
@@ -785,13 +776,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -802,13 +793,13 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -822,10 +813,10 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -836,10 +827,10 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
         <v>61</v>
@@ -853,13 +844,13 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -870,13 +861,13 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -887,13 +878,13 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -904,13 +895,13 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -924,10 +915,10 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -938,13 +929,13 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -955,13 +946,13 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -972,13 +963,13 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -992,10 +983,10 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1006,13 +997,13 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1023,13 +1014,13 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1040,13 +1031,13 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1057,13 +1048,13 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1074,13 +1065,30 @@
         <v>31</v>
       </c>
       <c r="C29">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
         <v>5</v>
       </c>
-      <c r="D29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" t="s">
-        <v>62</v>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
